--- a/data/trans_orig/iP30A2_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30A2_2023_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98EDE170-1114-48C1-8A64-18B98AEAEA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D2B57BB-874D-4116-AA34-08279C25C1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66F4BBDB-AE42-4D35-BE94-199DAC8CBEB1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACDE1776-3C8F-4184-BF22-8B958865435A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="226">
   <si>
     <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,7 +260,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si toman una 2ª pieza de fruta diaria o verduras frescas o cocinadas más de una vez al día en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -332,88 +332,88 @@
     <t>26,25%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>51,15%</t>
   </si>
   <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -422,73 +422,73 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
     <t>0,69%</t>
   </si>
   <si>
     <t>73,87%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>72,53%</t>
   </si>
   <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>23,47%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,1%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -497,73 +497,73 @@
     <t>66,58%</t>
   </si>
   <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>67,84%</t>
   </si>
   <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>33,42%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -572,67 +572,64 @@
     <t>62,73%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
   </si>
   <si>
     <t>60,24%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -644,16 +641,16 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,15%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -662,64 +659,64 @@
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>65,57%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
   </si>
   <si>
     <t>63,41%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>64,54%</t>
   </si>
   <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CA5127-537F-4DC7-84F5-E6EE49D44347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA824C29-0795-4D2E-B096-B05B7C8CCE2E}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2548,7 +2545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903D71E0-1426-4768-B3D9-77D39C09B822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0E2A6D-E9C1-4D03-BC17-43B4D0E277C3}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3965,7 +3962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514F7E81-1B5F-4A7F-8796-4715E120FE28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C542237-A63A-41A4-B56A-BBAA63500D3B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5382,7 +5379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D17C954-2633-46C9-A0DF-E3A4127C3D93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34FB79B-58EC-4BC2-8996-79C9AFD1E530}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5799,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,7 +5817,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5865,13 +5862,13 @@
         <v>129494</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>184</v>
@@ -5880,13 +5877,13 @@
         <v>112786</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -5895,13 +5892,13 @@
         <v>242280</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5913,13 @@
         <v>45223</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -5931,13 +5928,13 @@
         <v>45979</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>149</v>
@@ -5946,13 +5943,13 @@
         <v>91201</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,7 +6537,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6549,13 +6546,13 @@
         <v>2027</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -6567,10 +6564,10 @@
         <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6582,13 @@
         <v>15359</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -6600,13 +6597,13 @@
         <v>11076</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -6615,13 +6612,13 @@
         <v>26435</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6633,13 @@
         <v>475812</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H26" s="7">
         <v>594</v>
@@ -6651,13 +6648,13 @@
         <v>414514</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>1220</v>
@@ -6666,13 +6663,13 @@
         <v>890326</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6684,13 @@
         <v>233521</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H27" s="7">
         <v>321</v>
@@ -6702,13 +6699,13 @@
         <v>226095</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M27" s="7">
         <v>635</v>
@@ -6717,13 +6714,13 @@
         <v>459617</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
